--- a/dtpu_configurations/only_integer32/50mhz/mxu_6x6/power.xlsx
+++ b/dtpu_configurations/only_integer32/50mhz/mxu_6x6/power.xlsx
@@ -127,7 +127,7 @@
     <col min="3" max="3" width="9.84375" customWidth="true"/>
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
-    <col min="6" max="6" width="10.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.75" customWidth="true"/>
     <col min="7" max="7" width="8.75" customWidth="true"/>
     <col min="8" max="8" width="10.3125" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
@@ -175,22 +175,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.021107200533151627</v>
+        <v>0.029704662039875984</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.008696257136762142</v>
+        <v>0.010875499807298183</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.006868374068289995</v>
+        <v>0.008004345931112766</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.005499905440956354</v>
+        <v>0.005643196403980255</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.7594756829785183E-5</v>
+        <v>0.0015370396431535482</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.0017428749706596136</v>
+        <v>0.0024262035731226206</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>9.700000518932939E-4</v>
@@ -199,10 +199,10 @@
         <v>1.258823275566101</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.126886785030365</v>
+        <v>0.12751513719558716</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4306288957595825</v>
+        <v>1.445505976676941</v>
       </c>
     </row>
   </sheetData>
